--- a/2013B/附件3/中文匹配结果.xlsx
+++ b/2013B/附件3/中文匹配结果.xlsx
@@ -20,16 +20,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deta255(13,15)=inf;</t>
-  </si>
-  <si>
     <t>deta255(16,8)=inf;</t>
   </si>
   <si>
     <t>deta255(12,18)=inf;</t>
-  </si>
-  <si>
-    <t>deta255(13,7)=inf;deta255(13,6)=inf;deta255(8,7)=inf;</t>
   </si>
   <si>
     <t>deta255(8,5)=inf;</t>
@@ -65,6 +59,14 @@
   </si>
   <si>
     <t>deta255(7,12)=inf;deta255(6,12)=inf;deta255(7,2)=inf;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deta255(13,15)=inf;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deta255(13,7)=inf;deta255(13,6)=inf;deta255(8,7)=inf;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +428,7 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -549,7 +551,7 @@
         <v>75</v>
       </c>
       <c r="T2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -611,7 +613,7 @@
         <v>44</v>
       </c>
       <c r="T3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -673,7 +675,7 @@
         <v>197</v>
       </c>
       <c r="T4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -735,7 +737,7 @@
         <v>37</v>
       </c>
       <c r="T5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -797,7 +799,7 @@
         <v>61</v>
       </c>
       <c r="T6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -859,7 +861,7 @@
         <v>146</v>
       </c>
       <c r="T7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -921,7 +923,7 @@
         <v>124</v>
       </c>
       <c r="T8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -983,7 +985,7 @@
         <v>19</v>
       </c>
       <c r="T9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1045,7 +1047,7 @@
         <v>177</v>
       </c>
       <c r="T10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1763,21 +1765,21 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>42</v>
@@ -1845,7 +1847,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>26</v>

--- a/2013B/附件3/中文匹配结果.xlsx
+++ b/2013B/附件3/中文匹配结果.xlsx
@@ -14,28 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>初始分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deta255(16,8)=inf;</t>
-  </si>
-  <si>
-    <t>deta255(12,18)=inf;</t>
-  </si>
-  <si>
-    <t>deta255(8,5)=inf;</t>
-  </si>
-  <si>
     <t>deta255(14,11)=inf;</t>
-  </si>
-  <si>
-    <t>deta255=zeros(19);</t>
-  </si>
-  <si>
-    <t>deta255(15,17)=inf;deta255(15,5)=inf;deta255(15,16)=inf;</t>
   </si>
   <si>
     <t>行距</t>
@@ -58,15 +43,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deta255(7,12)=inf;deta255(6,12)=inf;deta255(7,2)=inf;</t>
+    <t>完美匹配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deta255(13,15)=inf;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>deta255(7,16)=0;deta255(6,2)=0</t>
   </si>
   <si>
-    <t>deta255(13,7)=inf;deta255(13,6)=inf;deta255(8,7)=inf;</t>
+    <t>deta255(13,16)=0;</t>
+  </si>
+  <si>
+    <t>deta255(16,2)=0;</t>
+  </si>
+  <si>
+    <t>deta255(12,7)=0</t>
+  </si>
+  <si>
+    <t>deta255(13,8)=0;deta255(8,10)=0</t>
+  </si>
+  <si>
+    <t>deta255(8,15)=0</t>
+  </si>
+  <si>
+    <t>deta255(16,11)=0</t>
+  </si>
+  <si>
+    <t>deta255(15,19)=0</t>
+  </si>
+  <si>
+    <t>deta255(10,2)=0</t>
+  </si>
+  <si>
+    <t>最多改两次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +436,7 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -491,6 +499,9 @@
       <c r="S1">
         <v>60</v>
       </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -551,7 +562,7 @@
         <v>75</v>
       </c>
       <c r="T2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -613,7 +624,7 @@
         <v>44</v>
       </c>
       <c r="T3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -675,7 +686,7 @@
         <v>197</v>
       </c>
       <c r="T4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -737,7 +748,7 @@
         <v>37</v>
       </c>
       <c r="T5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -799,7 +810,7 @@
         <v>61</v>
       </c>
       <c r="T6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -861,7 +872,7 @@
         <v>146</v>
       </c>
       <c r="T7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -923,7 +934,7 @@
         <v>124</v>
       </c>
       <c r="T8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -985,7 +996,7 @@
         <v>19</v>
       </c>
       <c r="T9" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1047,7 +1058,7 @@
         <v>177</v>
       </c>
       <c r="T10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1088,25 +1099,33 @@
         <v>96</v>
       </c>
       <c r="M11">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>23</v>
+      </c>
+      <c r="O11">
         <v>130</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>29</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>92</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>189</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>142</v>
       </c>
-      <c r="R11">
-        <v>12</v>
-      </c>
-      <c r="S11">
-        <v>23</v>
+      <c r="T11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1765,21 +1784,21 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B26">
         <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>42</v>
@@ -1847,7 +1866,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>26</v>
